--- a/biology/Botanique/Artemisia_alba/Artemisia_alba.xlsx
+++ b/biology/Botanique/Artemisia_alba/Artemisia_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Armoise blanche ou Armoise camphrée, Artemisia alba, est une espèce de plantes à fleurs vivace du genre Artemisia et de la famille des Astéracées (ou Composées).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’armoise blanche est haute de 30 à 60 cm, ses feuilles vertes, ponctuées, glabres ou un peu pubescentes ; les capitules globuleux, pédicellés, sont penchés, dépassés par les bractées ; l’involucre est pubescent, blanchâtre. La plante dégage une odeur de camphre.
 </t>
@@ -542,10 +556,12 @@
           <t>Usage thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été rapporté dans presque tous les échantillons décrits dans la littérature que le cinéole est l'un des constituants les plus courants de l'huile essentielle d'artemisia alba[1].
-L'activité anticancéreuse[2] des huiles essentielles de différentes parties biologiques d'artemisia alba peut être liée à des sesquiterpènes actifs associés à la synergie d'autres produits naturels présents dans la composition des huiles essentielles d'armoise blanche.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été rapporté dans presque tous les échantillons décrits dans la littérature que le cinéole est l'un des constituants les plus courants de l'huile essentielle d'artemisia alba.
+L'activité anticancéreuse des huiles essentielles de différentes parties biologiques d'artemisia alba peut être liée à des sesquiterpènes actifs associés à la synergie d'autres produits naturels présents dans la composition des huiles essentielles d'armoise blanche.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon EOL                          (18 novembre 2018)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon EOL                          (18 novembre 2018) :
 Artemisia alba ssp. kabylica (Chabert) Greuter
 Artemisia alba ssp. chitachensis Maire</t>
         </is>
